--- a/DATA/Users.xlsx
+++ b/DATA/Users.xlsx
@@ -2,18 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\PROJECTS\ADStructureCreator\DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAF6AFB8-6D8B-41C9-9959-CAA30AAEFF0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329B9FA4-1420-4BBF-87B5-E0CD69F5D1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{28FDD46A-769F-4C59-9BFF-2802A2B11A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="Departments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,44 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">GivenName </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamAccountName </t>
-  </si>
-  <si>
     <t xml:space="preserve">AccountPassword </t>
   </si>
   <si>
-    <t xml:space="preserve">Company </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmployeeNumber </t>
-  </si>
-  <si>
     <t xml:space="preserve">Department </t>
   </si>
   <si>
-    <t xml:space="preserve">DisplayName </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enabled </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChangePasswordAtLogon </t>
-  </si>
-  <si>
     <t>Kevin Sapp</t>
   </si>
   <si>
@@ -78,9 +47,6 @@
     <t>Sapp</t>
   </si>
   <si>
-    <t xml:space="preserve">Surname </t>
-  </si>
-  <si>
     <t>Kevin.Sapp</t>
   </si>
   <si>
@@ -93,9 +59,6 @@
     <t>Account manager</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>1. Kevin Sapp</t>
   </si>
   <si>
@@ -106,13 +69,61 @@
   </si>
   <si>
     <t>123456a!</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>GivenName</t>
+  </si>
+  <si>
+    <t>SamAccountName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>EmployeeNumber</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>ChangePasswordAtLogon</t>
+  </si>
+  <si>
+    <t>Отделы</t>
+  </si>
+  <si>
+    <t>Отдел1</t>
+  </si>
+  <si>
+    <t>Отдел2</t>
+  </si>
+  <si>
+    <t>Отдел3</t>
+  </si>
+  <si>
+    <t>Отдел4</t>
+  </si>
+  <si>
+    <t>Отдел5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +136,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +175,88 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -168,6 +267,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4ADAF83D-7EC0-41EE-B1AB-9DC4DA69357B}" name="Таблица2" displayName="Таблица2" ref="A1:M2">
+  <autoFilter ref="A1:M2" xr:uid="{9082692F-8991-4E55-B2DD-D27EA62AC3EC}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{DEF3E36B-53A2-4267-8635-4B7BD45E9AEA}" name="Name" totalsRowLabel="Итог" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{694D4D8E-B027-43A7-B542-B6C3E5EA92B3}" name="GivenName" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0E76B7B3-98FB-4B88-A643-CE0E48E3E62F}" name="Surname" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{99981ECC-4166-4601-8CEC-E69CF644E962}" name="SamAccountName" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{599FF509-AD87-41A5-9B04-928245BA00F2}" name="AccountPassword "/>
+    <tableColumn id="6" xr3:uid="{D0243919-FE75-450E-B678-B447D0D88DC5}" name="Company"/>
+    <tableColumn id="7" xr3:uid="{B2842191-C4FA-48AA-9226-134A74D38287}" name="Title"/>
+    <tableColumn id="8" xr3:uid="{6E345894-D3C7-4EBC-B629-87BFCBCF4B43}" name="Description"/>
+    <tableColumn id="9" xr3:uid="{BE0E5A39-1DA0-4995-8E85-75B51D463022}" name="EmployeeNumber"/>
+    <tableColumn id="10" xr3:uid="{D801967F-8BF5-41A3-9D39-EFE2BC4217AF}" name="Department "/>
+    <tableColumn id="11" xr3:uid="{E9324A58-D661-44E5-95CB-87EFC6EADD3E}" name="DisplayName"/>
+    <tableColumn id="12" xr3:uid="{35A3E8B6-BBE9-445F-A6E0-6CC725F6B06F}" name="Enabled"/>
+    <tableColumn id="13" xr3:uid="{52150500-55B0-4A17-8B7E-CA3B49CA856F}" name="ChangePasswordAtLogon" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0251114A-B7E2-4495-BB5F-0D4CB3D11F34}" name="Таблица1" displayName="Таблица1" ref="A1:A6" totalsRowShown="0">
+  <autoFilter ref="A1:A6" xr:uid="{A9FB64CC-E519-4802-B620-2576A1814A3F}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{38F7B82C-E8F3-4B5A-A261-857C8BD41512}" name="Отделы"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,23 +601,24 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -494,85 +626,153 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Отделы" xr:uid="{74306779-0B35-4FC1-BB73-CF3F851CC005}">
+          <x14:formula1>
+            <xm:f>Departments!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB1646-8A09-4147-9E15-BBAB1E7DB1F7}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>